--- a/assets/sheets/CompanySalariesSolution.xlsx
+++ b/assets/sheets/CompanySalariesSolution.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurennelsen/Dropbox/UCCS/Teaching/QUAN 2010/PreTeXt files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5F6A20-F1EB-214D-80DB-D87F49AB4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11173F8E-B833-1B4B-8CBC-71206EDD1BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{0A526CDB-BC37-6840-9B70-C611E8B4CB9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Women</t>
   </si>
@@ -77,14 +77,65 @@
     <t>F Critical one-tail</t>
   </si>
   <si>
-    <t>&lt;----p-value</t>
+    <t>sample means:</t>
+  </si>
+  <si>
+    <t>sample standard deviations</t>
+  </si>
+  <si>
+    <t>Women (population 2)</t>
+  </si>
+  <si>
+    <t>Men (population 1)</t>
+  </si>
+  <si>
+    <t>First let's test to see if there is enough evidence to conclude that the variances are not equal:</t>
+  </si>
+  <si>
+    <t>H_0:  sigma_1^2 = sigma_2^2</t>
+  </si>
+  <si>
+    <t>H_1:  sigma_1^2 \= sigma_2^2</t>
+  </si>
+  <si>
+    <t>&lt;--- this p-value is bigger than alpha, so we fail to reject the null, and we'll assume the variances are equal</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>&lt;---- p-value &lt; alpha, so we reject the null and conclude that the average salary for the men in this company is larger than the average salary for the women in this company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +159,13 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -167,22 +225,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,43 +576,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E766B-C170-6548-B4E4-E5CD907AA502}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(A3:A12)</f>
+        <v>57.2</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(D3:D15)</f>
+        <v>69.33846153846153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>37.799999999999997</v>
       </c>
       <c r="D3" s="1">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H3" s="5">
+        <f>H2*1000</f>
+        <v>57200</v>
+      </c>
+      <c r="I3" s="5">
+        <f>I2*1000</f>
+        <v>69338.461538461532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>76.099999999999994</v>
       </c>
@@ -559,15 +647,26 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>67.7</v>
       </c>
       <c r="D5" s="1">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.STDEV.S(A3:A12)</f>
+        <v>13.994363944896589</v>
+      </c>
+      <c r="I5">
+        <f>_xlfn.STDEV.S(D3:D15)</f>
+        <v>15.097270087753103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>37.6</v>
       </c>
@@ -575,7 +674,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>51.1</v>
       </c>
@@ -583,7 +682,7 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>67.5</v>
       </c>
@@ -591,7 +690,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -599,7 +698,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>71.7</v>
       </c>
@@ -607,7 +706,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>51.3</v>
       </c>
@@ -615,117 +714,251 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>47.2</v>
       </c>
       <c r="D12" s="1">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="4">
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
         <v>64.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
         <v>88.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="4">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
         <v>93.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="G15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="6">
+        <v>69.33846153846153</v>
+      </c>
+      <c r="I15" s="6">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
+        <v>227.92756410256456</v>
+      </c>
+      <c r="I16" s="6">
+        <v>195.84222222222161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="6">
+        <v>214.17670329670329</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6">
+        <v>21</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="G21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.9719018297963737</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="G22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3.0968175082271426E-2</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="D23" s="4"/>
+      <c r="G23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1.7207429028118781</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="G24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6.1936350164542853E-2</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="D25" s="4"/>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2.07961384472768</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B26" s="6">
+        <v>69.33846153846153</v>
+      </c>
+      <c r="C26" s="6">
         <v>57.2</v>
       </c>
-      <c r="C25" s="5">
-        <v>69.33846153846153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="6">
+        <v>227.92756410256456</v>
+      </c>
+      <c r="C27" s="6">
         <v>195.84222222222161</v>
       </c>
-      <c r="C26" s="5">
-        <v>227.92756410256456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="6">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6">
         <v>10</v>
       </c>
-      <c r="C27" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="6">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6">
         <v>9</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1.1638326072706415</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.41819892653712071</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.85923009353136004</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.41819892653712065</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0.4203650268823742</v>
-      </c>
-      <c r="C31" s="6"/>
+      <c r="B32" s="7">
+        <v>3.072947121878093</v>
+      </c>
+      <c r="C32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
